--- a/xls/comparative_table.xlsx
+++ b/xls/comparative_table.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparative table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$1752</definedName>
-    <definedName name="results" localSheetId="0">Лист1!$A$1:$H$1752</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Comparative table'!$A$1:$H$1752</definedName>
+    <definedName name="results" localSheetId="0">'Comparative table'!$A$1:$H$1752</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -5413,7 +5413,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
